--- a/KetQuaTest_RemoveFromCart.xlsx
+++ b/KetQuaTest_RemoveFromCart.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -39,15 +39,15 @@
   </si>
   <si>
     <t>Xóa khi giỏ rỗng (Null)</t>
+  </si>
+  <si>
+    <t>Cart=null</t>
   </si>
   <si>
     <t>1. Session cart = null
 2. Index=0</t>
   </si>
   <si>
-    <t>Cart=null</t>
-  </si>
-  <si>
     <t>Redirect ngay, ko gọi Service</t>
   </si>
   <si>
@@ -63,12 +63,12 @@
     <t>Index Null</t>
   </si>
   <si>
+    <t>Index=null</t>
+  </si>
+  <si>
     <t>1. Param index = null</t>
   </si>
   <si>
-    <t>Index=null</t>
-  </si>
-  <si>
     <t>Ko gọi Service, Redirect</t>
   </si>
   <si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Xóa thành công</t>
+  </si>
+  <si>
+    <t>Index=0</t>
   </si>
   <si>
     <t>1. Session có Cart
@@ -83,23 +86,36 @@
 3. Call service remove</t>
   </si>
   <si>
-    <t>Index=0</t>
-  </si>
-  <si>
     <t>Update Cart &amp; Redirect</t>
   </si>
   <si>
+    <t>REMOVE_05</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (Exception)</t>
+  </si>
+  <si>
+    <t>Index=1, Error</t>
+  </si>
+  <si>
+    <t>1. Service ném RuntimeException
+2. Servlet catch</t>
+  </si>
+  <si>
+    <t>Catch &amp; Redirect an toàn</t>
+  </si>
+  <si>
     <t>REMOVE_03</t>
   </si>
   <si>
     <t>Index lỗi (Chuỗi)</t>
+  </si>
+  <si>
+    <t>Index='abc'</t>
   </si>
   <si>
     <t>1. Index='abc'
 2. Catch Exception</t>
-  </si>
-  <si>
-    <t>Index='abc'</t>
   </si>
 </sst>
 </file>
@@ -177,16 +193,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.29296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.55078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.7421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="30.96875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.55078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -298,12 +314,35 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="2">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>13</v>
       </c>
     </row>
